--- a/Backend/tables_detected.xlsx
+++ b/Backend/tables_detected.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_Page1_Table1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_Page2_Table1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_Page2_Table2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page1_Table1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page2_Table1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page2_Table2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Backend/tables_detected.xlsx
+++ b/Backend/tables_detected.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page1_Table1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page2_Table1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_Page2_Table2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,471 +424,326 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Number Coils</t>
+          <t>40/ 447</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mumber Paperclips</t>
+          <t>Breediove Creib</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Spint 01 America</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>UE J4)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>8/5/63</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3 5,</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>413.1S9</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tom Green</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wingfoot Express</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WEj46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/ 764</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>43477</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AnArone</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ureen Nongter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CE J/9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>103/64</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14,40,12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Speed (mph)</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Engine</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>407 147</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Craig Breedlove</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Spirit ol America</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GE147</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8/5/63</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>413.199</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tom Green</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wingloot Express</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WE J46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10/2/64</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>434 22</t>
+          <t>468-/19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ArL Arfons</t>
+          <t>Crain Bre ediove</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Green Monster</t>
+          <t>Soint ot4merica</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>CE J/9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10/5/64</t>
+          <t>10/13i64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>468.719</t>
+          <t>516 "7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Craig Breedlove</t>
+          <t>Breediove Creib</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Spirit ol America</t>
+          <t>Spint 01 America</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>CE J/9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/13/64</t>
+          <t>10/15/65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>526.277</t>
+          <t>546 /12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Craig Breedlove</t>
+          <t>AnArone</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spirit ol America</t>
+          <t>Ureen Nongter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>CE J/9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10/15/65</t>
+          <t>1027/65</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>536.712</t>
+          <t>535-127</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arl Arlons</t>
+          <t>Breediove Creib</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Green Mansler</t>
+          <t>Spint 01 America Jcnic</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>CE J/9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10/27/65</t>
+          <t>11,265</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>555.127</t>
+          <t>576.533</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Craig Brecdleve</t>
+          <t>AnArtons</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Spiric  Kincrcd Sonic</t>
+          <t>Green Konater</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>CE J/9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11/2/65</t>
+          <t>11/7/63</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>576.553</t>
+          <t>God 6o:</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ArL Arfons</t>
+          <t>Breediove Creib</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GrCCm Manslcr</t>
+          <t>Soicicot Amefice Sonic</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>UE J/C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11/7/65</t>
+          <t>11/15/65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>600.601</t>
+          <t>622.407</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Craig Brecdlove</t>
+          <t>Cary Gabelich</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spiric ol Amnerica Sonic</t>
+          <t>Biue FlaMe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GE J79</t>
+          <t>Kocket</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11/15/65</t>
+          <t>10/23,0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>622.407</t>
+          <t>633.468</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gary Gabelich</t>
+          <t>Richard Noble</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Blue Flame</t>
+          <t>Thruat "</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rocket</t>
+          <t>RR RC 146</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10/23/70</t>
+          <t>10/4/84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>633.468</t>
+          <t>763 035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Richard Noble</t>
+          <t>And  Cree</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thrusl</t>
+          <t>hrust SSC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RR RG</t>
+          <t>KRSpe:</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10/4/83</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>763.035</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Andy Green</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Thrusl SSC</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RR Spey</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10/15/97</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Time (drops Watert</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Distance (cm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>10,11,9</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>29, 31,30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>102, 100, 98</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>122 , 125, 127</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>1015/97</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
